--- a/alpha_team/wbs.xlsx
+++ b/alpha_team/wbs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="20040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>WBS</t>
     <phoneticPr fontId="1"/>
@@ -384,28 +384,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,7 +744,7 @@
   <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -756,7 +756,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -764,49 +764,49 @@
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
       <c r="S3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="3"/>
@@ -814,106 +814,106 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="11">
+      <c r="F4" s="7">
         <v>19</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="7">
         <v>20</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="7">
         <v>21</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="7">
         <v>22</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="7">
         <v>23</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="7">
         <v>24</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="7">
         <v>25</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="7">
         <v>26</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="7">
         <v>27</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="7">
         <v>28</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="7">
         <v>29</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="7">
         <v>30</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="7">
         <v>31</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="7">
         <v>1</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="7">
         <v>2</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="7">
         <v>3</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="7">
         <v>4</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="7">
         <v>5</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="7">
         <v>6</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="7">
         <v>7</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="7">
         <v>8</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="7">
         <v>9</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AB4" s="7">
         <v>10</v>
       </c>
-      <c r="AC4" s="11">
+      <c r="AC4" s="7">
         <v>11</v>
       </c>
-      <c r="AD4" s="11">
+      <c r="AD4" s="7">
         <v>12</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AE4" s="7">
         <v>13</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="7">
         <v>14</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="7">
         <v>15</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="4"/>
@@ -947,17 +947,17 @@
       <c r="AH5" s="3"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="3"/>
@@ -991,17 +991,19 @@
       <c r="AH6" s="3"/>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1033,16 +1035,16 @@
       <c r="AH7" s="3"/>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="2"/>
@@ -1077,14 +1079,14 @@
       <c r="AH8" s="3"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="6"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="2"/>
@@ -1119,14 +1121,14 @@
       <c r="AH9" s="3"/>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" s="6"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="2"/>
@@ -1161,16 +1163,16 @@
       <c r="AH10" s="3"/>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="2"/>
@@ -1205,14 +1207,14 @@
       <c r="AH11" s="3"/>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="6"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="2"/>
@@ -1247,14 +1249,14 @@
       <c r="AH12" s="3"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="6"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="2"/>
@@ -1289,16 +1291,16 @@
       <c r="AH13" s="3"/>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="2"/>
@@ -1333,14 +1335,14 @@
       <c r="AH14" s="3"/>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="7"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="2"/>
@@ -1375,16 +1377,16 @@
       <c r="AH15" s="3"/>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="2"/>
@@ -1419,14 +1421,14 @@
       <c r="AH16" s="3"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="2"/>
